--- a/kalender.xlsx
+++ b/kalender.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avalin\Documents\Grundejerforeningen\Homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF6E3B3-2C02-42D5-A3B4-A1391D0062FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F00A2E0-E8DB-4A01-9D19-15CEB88995B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,13 +39,13 @@
     <t>Generalforsamling</t>
   </si>
   <si>
-    <t>Fællesdag</t>
-  </si>
-  <si>
-    <t>Rytterparken</t>
-  </si>
-  <si>
-    <t>Tingvej</t>
+    <t>Bestyrelsesmøde</t>
+  </si>
+  <si>
+    <t>Ubesluttet</t>
+  </si>
+  <si>
+    <t>Rytterparken 78</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,10 +406,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45783</v>
+        <v>45888</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -417,10 +417,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45809</v>
+        <v>46096</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>

--- a/kalender.xlsx
+++ b/kalender.xlsx
@@ -40,7 +40,7 @@
     <t>Generalforsamling</t>
   </si>
   <si>
-    <t>Ubesluttet</t>
+    <t>Hornslet Hallen, Stadionvej 4</t>
   </si>
   <si>
     <t>Offentlig</t>
@@ -51,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +61,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -117,17 +123,17 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,7 +463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A2" s="4">
         <v>45888</v>
       </c>
@@ -471,7 +477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A3" s="4">
         <v>46096</v>
       </c>

--- a/kalender.xlsx
+++ b/kalender.xlsx
@@ -51,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,12 +69,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -106,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -123,17 +117,11 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,10 +431,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="27.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="42.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="27.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="42.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="10.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -473,7 +461,7 @@
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -487,7 +475,7 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
